--- a/biology/Médecine/Institut_de_cardiologie_de_Montréal/Institut_de_cardiologie_de_Montréal.xlsx
+++ b/biology/Médecine/Institut_de_cardiologie_de_Montréal/Institut_de_cardiologie_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_cardiologie_de_Montr%C3%A9al</t>
+          <t>Institut_de_cardiologie_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Institut de cardiologie de Montréal (ICM) est un centre hospitalier spécialisé dans les soins, la recherche, l'enseignement et la prévention des maladies cardiaques. Il voit aussi au développement et à l'évaluation de nouvelles technologies en cardiologie. Il est situé au 5000, rue Bélanger dans l'arrondissement Rosemont-Petite-Patrie à Montréal
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_cardiologie_de_Montr%C3%A9al</t>
+          <t>Institut_de_cardiologie_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut de cardiologie de Montréal (ICM) a été fondé en 1954 par le Dr Paul David. En effet, les sœurs grises, alors occupées à la construction d'un nouvel hôpital, lui offrent la direction du tout nouveau département de cardiologie et consentent à ce que ce service devienne une entité entièrement autonome.
 Occupant au départ deux étages du nouvel hôpital Maisonneuve (en 1954), l'Institut compte alors 42 lits et son équipe médicale se compose de trois cardiologues et de deux chirurgiens. L'idée de regrouper sous un même toit tous les services de cardiologie fera son chemin et l'Institut deviendra un modèle transposé dans plusieurs pays.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_de_cardiologie_de_Montr%C3%A9al</t>
+          <t>Institut_de_cardiologie_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de Montréal   Portail du Québec   Portail de la médecine                   </t>
